--- a/Documents/External/OpenSourceSoftware for IP Assessment_Form.xlsx
+++ b/Documents/External/OpenSourceSoftware for IP Assessment_Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI_Kit\Release\SharePoint\Version2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI_Kit\SourceTree\Documents\External\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -766,8 +766,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="20">
-        <v>42342</v>
+        <v>42412</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1276,12 +1276,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005773F80B0CB5C54992628B08AB347891" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a51977620af80ee6161acfb45e2f9474">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1395,6 +1389,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B9BA66A-4884-47B6-8629-F79B22852895}">
   <ds:schemaRefs>
@@ -1404,15 +1404,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91FE2573-1738-4F89-8DC6-6E3438916A1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787AF0E0-A1C5-4D5E-A729-1F4FBE2037C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1426,4 +1417,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91FE2573-1738-4F89-8DC6-6E3438916A1A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>